--- a/biology/Zoologie/Capoeta/Capoeta.xlsx
+++ b/biology/Zoologie/Capoeta/Capoeta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Capoeta regroupe plusieurs espèces de poissons de la famille des cyprinidés.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement 32 espèces sont reconnus dans ce genre :
 Capoeta aculeata (Valenciennes, 1844)
-Capoeta alborzensis Jouladeh-Roudbar, Eagderi, Ghanavi &amp; Doadrio, 2016 [1]
-Capoeta anamisensis Zareian, Esmaeili &amp; Freyhof, 2016 [2]
+Capoeta alborzensis Jouladeh-Roudbar, Eagderi, Ghanavi &amp; Doadrio, 2016 
+Capoeta anamisensis Zareian, Esmaeili &amp; Freyhof, 2016 
 Capoeta angorae (Hankó (hu), 1925)
 Capoeta antalyensis (Battalgil, 1944)
 Capoeta baliki Turan, Kottelat, Ekmekçi &amp; İmamoğlu, 2006
@@ -527,7 +541,7 @@
 Capoeta caelestis Schöter, Özuluğ &amp; Freyhof, 2009
 Capoeta capoetoides Pellegrin, 1938
 Capoeta capoeta (Güldenstädt, 1773)
-Capoeta coadi Alwan, Zareian &amp; Esmaeili, 2016 [3]
+Capoeta coadi Alwan, Zareian &amp; Esmaeili, 2016 
 Capoeta damascina (Valenciennes, 1842)
 Capoeta ekmekciae Turan, Kottelat, Kırankaya &amp; Engin, 2006
 Capoeta erhani Turan, Kottelat &amp; Ekmekçi, 2008
@@ -538,14 +552,14 @@
 Capoeta mandica Bianco &amp; Bănărescu, 1982
 Capoeta mauricii Küçük, Turan, Şahin &amp; Gülle, 2009
 Capoeta pestai (Pietschmann, 1933)
-Capoeta razii Jouladeh-Roudbar, Eagderi, Ghanavi &amp; Doadrio, 2017 [4]
+Capoeta razii Jouladeh-Roudbar, Eagderi, Ghanavi &amp; Doadrio, 2017 
 Capoeta saadii (Heckel, 1847)
 Capoeta sevangi De Filippi, 1865
 Capoeta sieboldii (Steindachner, 1864)
 Capoeta tinca (Heckel, 1843)
 Capoeta trutta (Heckel, 1843)
 Capoeta turani Özuluğ &amp; Freyhof, 2008
-Capoeta umbla (Heckel, 1843) [5]
+Capoeta umbla (Heckel, 1843) 
 L'espèce Capoeta schuberti n'est pas reconnue officiellement. Ce n'est pas un poisson connu dans la nature et il s'agit soit d'une hybridation ou d'une sélection à partir de Puntius semifasciolatus.
 </t>
         </is>
